--- a/writing/Table3_GenetSeparated.xlsx
+++ b/writing/Table3_GenetSeparated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2958C2EB-4FE1-4825-AC8B-448765D86377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E8EA0-350D-42D5-90FA-9F2CD5980C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88F7F368-B733-44A7-86B8-255E032283D0}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{88F7F368-B733-44A7-86B8-255E032283D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Variable</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Cell Membrane Stability (Cold)</t>
@@ -114,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -326,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +331,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,73 +386,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -735,7 +723,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,343 +738,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1.349</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="H4" s="17">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1.151</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.314</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1.486</v>
+      </c>
+      <c r="H7" s="19">
+        <v>9.8900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1.738</v>
+      </c>
+      <c r="H8" s="19">
+        <v>7.1900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.194</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1.548</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="20">
-        <v>1.383</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="21">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.156</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="H5" s="25">
-        <v>0.74299999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1.177</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0.85299999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1.194</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="28">
-        <v>1.764</v>
-      </c>
-      <c r="H7" s="29">
-        <v>3.15E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="23">
-        <v>1.8520000000000001</v>
-      </c>
-      <c r="H8" s="26">
-        <v>5.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="20">
-        <v>1.22</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="23">
-        <v>1.548</v>
-      </c>
-      <c r="H9" s="26">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="D10" s="14">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2.371</v>
+      </c>
+      <c r="H10" s="17">
+        <v>5.4199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="21">
-        <v>2.371</v>
-      </c>
-      <c r="H10" s="24">
-        <v>5.4199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="H11" s="18">
+        <v>9.3600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="20">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="23">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="H11" s="25">
-        <v>9.3600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2.125</v>
+      </c>
+      <c r="E12" s="16">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="20">
-        <v>2.125</v>
-      </c>
-      <c r="E12" s="23">
-        <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="23">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="H12" s="25">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="H13" s="19">
+        <v>6.13E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="23">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="H13" s="26">
-        <v>6.13E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26"/>
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0.875</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="23">
-        <v>1.7</v>
-      </c>
-      <c r="H14" s="26">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="15">
         <v>1.0740000000000001</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="15">
         <v>0.46200000000000002</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="22">
+      <c r="F15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="15">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="20">
         <v>0.63400000000000001</v>
       </c>
     </row>
